--- a/performance_data/trained/train/metrics.xlsx
+++ b/performance_data/trained/train/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,37 +456,57 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>rmse_vcell_hybrid_without_delta [mV]</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>rmse_vcell_rom [mV]</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>rmse_thetass2_spme [milli]</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>rmse_thetass2_hybrid [milli]</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_thetass2_hybrid_without_delta [milli]</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>rmse_phie2_spme [mV]</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>rmse_phie2_hybrid [mV]</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_phie2_hybrid_without_delta [mV]</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>rmse_if2_spme [mA]</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>rmse_if2_hybrid [mA]</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_if2_hybrid_without_delta [mA]</t>
         </is>
       </c>
     </row>
@@ -508,26 +528,38 @@
         <v>20.93950623549879</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4216284334351532</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
+        <v>0.1447014626131365</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.158513352505637</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
         <v>45.92466246562669</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.1907193829586389</v>
-      </c>
       <c r="I2" t="n">
+        <v>0.2549396354681588</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.305782796257067</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.664368546039943</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.09024314324236646</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>0.1136709188497279</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.8210037975730621</v>
+      </c>
+      <c r="N2" t="n">
         <v>69.53102781528693</v>
       </c>
-      <c r="L2" t="n">
-        <v>12.27876627067265</v>
+      <c r="O2" t="n">
+        <v>2.35426454294589</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.141354002011772</v>
       </c>
     </row>
     <row r="3">
@@ -548,26 +580,38 @@
         <v>15.57940705218927</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3463259072857951</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
+        <v>0.1462393457123742</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9162895844354827</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
         <v>39.1123260029219</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.1886216992818014</v>
-      </c>
       <c r="I3" t="n">
+        <v>0.2409985772909032</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.341767094347388</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.092197198069019</v>
       </c>
-      <c r="J3" t="n">
-        <v>0.07079572543863227</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
+        <v>0.08226088311766205</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.6757852101454411</v>
+      </c>
+      <c r="N3" t="n">
         <v>40.00177483507424</v>
       </c>
-      <c r="L3" t="n">
-        <v>7.923401993454037</v>
+      <c r="O3" t="n">
+        <v>1.52561331755798</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.817362886994148</v>
       </c>
     </row>
     <row r="4">
@@ -588,26 +632,38 @@
         <v>10.25629369415387</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2698432261971153</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
+        <v>0.08764430653186017</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.446143204064614</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
         <v>28.37168173501107</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.1571451984661257</v>
-      </c>
       <c r="I4" t="n">
+        <v>0.2307171122656065</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8.815475937859549</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.9673119204845828</v>
       </c>
-      <c r="J4" t="n">
-        <v>0.04695321239724597</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>0.05278994429287914</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.9609796348938519</v>
+      </c>
+      <c r="N4" t="n">
         <v>18.78211726006774</v>
       </c>
-      <c r="L4" t="n">
-        <v>4.551567755582895</v>
+      <c r="O4" t="n">
+        <v>0.9469769822157679</v>
+      </c>
+      <c r="P4" t="n">
+        <v>38.73887961296128</v>
       </c>
     </row>
     <row r="5">
@@ -628,26 +684,38 @@
         <v>8.13820441240917</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2132440856010876</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
+        <v>0.07672120625397706</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.255113875520034</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
         <v>23.28219428636222</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.1476727506775952</v>
-      </c>
       <c r="I5" t="n">
+        <v>0.1873069081168543</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.594194157248451</v>
+      </c>
+      <c r="K5" t="n">
         <v>0.6329382631472378</v>
       </c>
-      <c r="J5" t="n">
-        <v>0.04213123504804791</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
+        <v>0.04331641219074985</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.4171233374084458</v>
+      </c>
+      <c r="N5" t="n">
         <v>12.46089570086236</v>
       </c>
-      <c r="L5" t="n">
-        <v>3.464882658432534</v>
+      <c r="O5" t="n">
+        <v>0.6281574872556612</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.103089203773022</v>
       </c>
     </row>
     <row r="6">
@@ -668,26 +736,38 @@
         <v>6.036058182680254</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1396438064846536</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
+        <v>0.07396966557822747</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8606683048720434</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
         <v>17.84427831599043</v>
       </c>
-      <c r="H6" t="n">
-        <v>0.1803235819385189</v>
-      </c>
       <c r="I6" t="n">
+        <v>0.1740510284848118</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.484685967089342</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.3623895919954701</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.02951757503388296</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
+        <v>0.0337209411480521</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.3298506463345188</v>
+      </c>
+      <c r="N6" t="n">
         <v>7.29551031936593</v>
       </c>
-      <c r="L6" t="n">
-        <v>2.565222836080308</v>
+      <c r="O6" t="n">
+        <v>0.5567261637902534</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.406545792398516</v>
       </c>
     </row>
     <row r="7">
@@ -708,26 +788,38 @@
         <v>3.981369801306371</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1133823473035794</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
+        <v>0.149802145920896</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7151567643096997</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
         <v>12.15000376095061</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.1727956651673025</v>
-      </c>
       <c r="I7" t="n">
+        <v>0.2436418165287724</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.535749918283733</v>
+      </c>
+      <c r="K7" t="n">
         <v>0.1631121796761842</v>
       </c>
-      <c r="J7" t="n">
-        <v>0.02171655628583107</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
+        <v>0.02578294282736543</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.2787748641944841</v>
+      </c>
+      <c r="N7" t="n">
         <v>3.401840416890777</v>
       </c>
-      <c r="L7" t="n">
-        <v>1.877970982458762</v>
+      <c r="O7" t="n">
+        <v>0.7116411480549513</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.870632747034487</v>
       </c>
     </row>
     <row r="8">
@@ -748,26 +840,38 @@
         <v>1.976525736767965</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09696796608047516</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
+        <v>0.134261421070744</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.6964728517659555</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
         <v>6.189644427259642</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.1571432074128237</v>
-      </c>
       <c r="I8" t="n">
+        <v>0.2122016017045981</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.865862170242416</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.04205194627411699</v>
       </c>
-      <c r="J8" t="n">
-        <v>0.01263738188799665</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
+        <v>0.03554245755218429</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.1309513642179738</v>
+      </c>
+      <c r="N8" t="n">
         <v>0.9363886540955451</v>
       </c>
-      <c r="L8" t="n">
-        <v>1.101807531275759</v>
+      <c r="O8" t="n">
+        <v>0.4599482619350016</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.433543785784792</v>
       </c>
     </row>
     <row r="9">
@@ -788,26 +892,38 @@
         <v>1.924042851913846</v>
       </c>
       <c r="E9" t="n">
-        <v>0.157804526885673</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
+        <v>0.17232650610304</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.753064735442966</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
         <v>6.077412829194519</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.211665005580118</v>
-      </c>
       <c r="I9" t="n">
+        <v>0.2559842829501312</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.236696473855212</v>
+      </c>
+      <c r="K9" t="n">
         <v>0.1079218864883202</v>
       </c>
-      <c r="J9" t="n">
-        <v>0.00686556024264534</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
+        <v>0.06979959647502477</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.02248327807755838</v>
+      </c>
+      <c r="N9" t="n">
         <v>1.954743017683389</v>
       </c>
-      <c r="L9" t="n">
-        <v>0.1954650156998459</v>
+      <c r="O9" t="n">
+        <v>0.1880058522048621</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.755702697480374</v>
       </c>
     </row>
     <row r="10">
@@ -828,26 +944,38 @@
         <v>3.864819402097794</v>
       </c>
       <c r="E10" t="n">
-        <v>0.167543913651792</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
+        <v>0.1800624240854978</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.151297649465981</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
         <v>11.99130952495232</v>
       </c>
-      <c r="H10" t="n">
-        <v>0.2162463385549117</v>
-      </c>
       <c r="I10" t="n">
+        <v>0.277090752748721</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.993585982911574</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.3431598771705062</v>
       </c>
-      <c r="J10" t="n">
-        <v>0.01043384203732716</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
+        <v>0.07610555047317216</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.04572521647417075</v>
+      </c>
+      <c r="N10" t="n">
         <v>6.251035281392252</v>
       </c>
-      <c r="L10" t="n">
-        <v>0.3369601520759735</v>
+      <c r="O10" t="n">
+        <v>0.2957909631748513</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.303396261846574</v>
       </c>
     </row>
     <row r="11">
@@ -868,26 +996,38 @@
         <v>5.804577260079263</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1925115219086083</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
+        <v>0.3271788503349735</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.926939333749493</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
         <v>17.67701197859228</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.2002609357304292</v>
-      </c>
       <c r="I11" t="n">
+        <v>0.3414233777612846</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.07931018891758</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.6787911795803728</v>
       </c>
-      <c r="J11" t="n">
-        <v>0.02783559407579663</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
+        <v>0.07639211896778632</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.05888460831858983</v>
+      </c>
+      <c r="N11" t="n">
         <v>12.41656140118064</v>
       </c>
-      <c r="L11" t="n">
-        <v>0.7314817405108832</v>
+      <c r="O11" t="n">
+        <v>0.3342414720266454</v>
+      </c>
+      <c r="P11" t="n">
+        <v>6.769916202735327</v>
       </c>
     </row>
     <row r="12">
@@ -908,26 +1048,38 @@
         <v>7.722136755302695</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2696862368404224</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
+        <v>0.4894722333315807</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.840226203590202</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
         <v>23.07345703093173</v>
       </c>
-      <c r="H12" t="n">
-        <v>0.1758291232624059</v>
-      </c>
       <c r="I12" t="n">
+        <v>0.354934820625849</v>
+      </c>
+      <c r="J12" t="n">
+        <v>6.463184463601919</v>
+      </c>
+      <c r="K12" t="n">
         <v>1.098214936506632</v>
       </c>
-      <c r="J12" t="n">
-        <v>0.03447818000372455</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
+        <v>0.08793758590308175</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.06750114325531324</v>
+      </c>
+      <c r="N12" t="n">
         <v>20.17365435353008</v>
       </c>
-      <c r="L12" t="n">
-        <v>0.926994933949563</v>
+      <c r="O12" t="n">
+        <v>0.3737458283911755</v>
+      </c>
+      <c r="P12" t="n">
+        <v>8.297442009905</v>
       </c>
     </row>
     <row r="13">
@@ -948,26 +1100,38 @@
         <v>9.664442604398495</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2830002208963828</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
+        <v>0.8499184206339315</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.442427628650778</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
         <v>28.28882545109327</v>
       </c>
-      <c r="H13" t="n">
-        <v>0.1533047307086534</v>
-      </c>
       <c r="I13" t="n">
+        <v>0.5263771240946137</v>
+      </c>
+      <c r="J13" t="n">
+        <v>9.201115053890611</v>
+      </c>
+      <c r="K13" t="n">
         <v>1.589730132050035</v>
       </c>
-      <c r="J13" t="n">
-        <v>0.04026844808066467</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
+        <v>0.08624288548080612</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.471579102417278</v>
+      </c>
+      <c r="N13" t="n">
         <v>29.31381695520278</v>
       </c>
-      <c r="L13" t="n">
-        <v>1.323012920713272</v>
+      <c r="O13" t="n">
+        <v>0.4074798772324006</v>
+      </c>
+      <c r="P13" t="n">
+        <v>20.93043557264171</v>
       </c>
     </row>
     <row r="14">
@@ -988,26 +1152,38 @@
         <v>14.48452438265758</v>
       </c>
       <c r="E14" t="n">
-        <v>0.62172889191293</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
+        <v>1.344892293243759</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.867375923412702</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
         <v>40.22702207397976</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.1742719921403019</v>
-      </c>
       <c r="I14" t="n">
+        <v>0.8024492451368904</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.761769567961808</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.089633589898074</v>
       </c>
-      <c r="J14" t="n">
-        <v>0.07289128538331226</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
+        <v>0.09573451986381788</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.07363436622879792</v>
+      </c>
+      <c r="N14" t="n">
         <v>57.40757678604163</v>
       </c>
-      <c r="L14" t="n">
-        <v>2.498141029698632</v>
+      <c r="O14" t="n">
+        <v>0.6514619957825368</v>
+      </c>
+      <c r="P14" t="n">
+        <v>9.526903271140904</v>
       </c>
     </row>
     <row r="15">
@@ -1028,26 +1204,38 @@
         <v>19.34968794655873</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9961661286260518</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
+        <v>3.301807678358506</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4.282109614425775</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
         <v>50.76552208170722</v>
       </c>
-      <c r="H15" t="n">
-        <v>0.2291678771772898</v>
-      </c>
       <c r="I15" t="n">
+        <v>1.171498970836732</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.6516559500298</v>
+      </c>
+      <c r="K15" t="n">
         <v>4.897717569093605</v>
       </c>
-      <c r="J15" t="n">
-        <v>0.1148031679999594</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
+        <v>0.09791846976582178</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.1123776683359995</v>
+      </c>
+      <c r="N15" t="n">
         <v>91.32379615265607</v>
       </c>
-      <c r="L15" t="n">
-        <v>3.579273512143787</v>
+      <c r="O15" t="n">
+        <v>0.8011743631108935</v>
+      </c>
+      <c r="P15" t="n">
+        <v>13.19742145168537</v>
       </c>
     </row>
     <row r="16">
@@ -1068,26 +1256,38 @@
         <v>6.330286012396678</v>
       </c>
       <c r="E16" t="n">
-        <v>0.165312098397501</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
+        <v>0.1010217989635674</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.758627637723296</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
         <v>13.15058040366157</v>
       </c>
-      <c r="H16" t="n">
-        <v>0.2558838241584466</v>
-      </c>
       <c r="I16" t="n">
+        <v>0.3813187691396003</v>
+      </c>
+      <c r="J16" t="n">
+        <v>7.004104682614353</v>
+      </c>
+      <c r="K16" t="n">
         <v>1.806311812165985</v>
       </c>
-      <c r="J16" t="n">
-        <v>0.03600350395906541</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
+        <v>0.05080057231149222</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.9867880712217992</v>
+      </c>
+      <c r="N16" t="n">
         <v>32.82861635510911</v>
       </c>
-      <c r="L16" t="n">
-        <v>2.565890907444492</v>
+      <c r="O16" t="n">
+        <v>0.7494274990378299</v>
+      </c>
+      <c r="P16" t="n">
+        <v>29.72785757824348</v>
       </c>
     </row>
     <row r="17">
@@ -1108,26 +1308,38 @@
         <v>6.533939478173556</v>
       </c>
       <c r="E17" t="n">
-        <v>0.224386535858305</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
+        <v>0.4136405118658295</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.413086766821142</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
         <v>13.33038952488467</v>
       </c>
-      <c r="H17" t="n">
-        <v>0.2563974826525876</v>
-      </c>
       <c r="I17" t="n">
+        <v>0.3638850688951091</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6.576147594081661</v>
+      </c>
+      <c r="K17" t="n">
         <v>1.890133504311341</v>
       </c>
-      <c r="J17" t="n">
-        <v>0.04078166186226333</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
+        <v>0.09319127933822578</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.218283549533634</v>
+      </c>
+      <c r="N17" t="n">
         <v>34.46358346375723</v>
       </c>
-      <c r="L17" t="n">
-        <v>1.04939149650609</v>
+      <c r="O17" t="n">
+        <v>0.5458270808968316</v>
+      </c>
+      <c r="P17" t="n">
+        <v>18.01144876103204</v>
       </c>
     </row>
     <row r="18">
@@ -1148,26 +1360,38 @@
         <v>6.464454412748382</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1812577886619197</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
+        <v>0.127146771021778</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.804193026045434</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
         <v>11.51222751633626</v>
       </c>
-      <c r="H18" t="n">
-        <v>0.2458889377255569</v>
-      </c>
       <c r="I18" t="n">
+        <v>0.3611435592835208</v>
+      </c>
+      <c r="J18" t="n">
+        <v>7.094695007243816</v>
+      </c>
+      <c r="K18" t="n">
         <v>2.021264524613593</v>
       </c>
-      <c r="J18" t="n">
-        <v>0.03857712220547167</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
+        <v>0.05494865708426171</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.988676865554064</v>
+      </c>
+      <c r="N18" t="n">
         <v>36.54217756834051</v>
       </c>
-      <c r="L18" t="n">
-        <v>2.579447704697241</v>
+      <c r="O18" t="n">
+        <v>0.8020634713571693</v>
+      </c>
+      <c r="P18" t="n">
+        <v>29.19624691049688</v>
       </c>
     </row>
     <row r="19">
@@ -1188,26 +1412,38 @@
         <v>6.509941070911604</v>
       </c>
       <c r="E19" t="n">
-        <v>0.159461454324363</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
+        <v>0.3832302965479421</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.594589498737972</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
         <v>11.52931251841167</v>
       </c>
-      <c r="H19" t="n">
-        <v>0.2340528576059502</v>
-      </c>
       <c r="I19" t="n">
+        <v>0.3287175401460782</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6.553487123422274</v>
+      </c>
+      <c r="K19" t="n">
         <v>2.029905381850061</v>
       </c>
-      <c r="J19" t="n">
-        <v>0.02908550274058667</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
+        <v>0.09303002701129101</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.19936667903982</v>
+      </c>
+      <c r="N19" t="n">
         <v>36.80622061930284</v>
       </c>
-      <c r="L19" t="n">
-        <v>1.110685739976448</v>
+      <c r="O19" t="n">
+        <v>0.5598238148476871</v>
+      </c>
+      <c r="P19" t="n">
+        <v>18.11138641755876</v>
       </c>
     </row>
     <row r="20">
@@ -1228,26 +1464,38 @@
         <v>5.954458008904421</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2180797766292309</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
+        <v>0.2638145375778966</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.621782107208268</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
         <v>9.390682266155379</v>
       </c>
-      <c r="H20" t="n">
-        <v>0.2770268440309162</v>
-      </c>
       <c r="I20" t="n">
+        <v>0.3464792724237805</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6.963091353199945</v>
+      </c>
+      <c r="K20" t="n">
         <v>2.005709850069252</v>
       </c>
-      <c r="J20" t="n">
-        <v>0.04561332688171908</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
+        <v>0.07169169776855777</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7164928405400729</v>
+      </c>
+      <c r="N20" t="n">
         <v>36.4915266830394</v>
       </c>
-      <c r="L20" t="n">
-        <v>2.378161160175158</v>
+      <c r="O20" t="n">
+        <v>1.43714346968062</v>
+      </c>
+      <c r="P20" t="n">
+        <v>24.60286520996206</v>
       </c>
     </row>
     <row r="21">
@@ -1268,26 +1516,38 @@
         <v>6.061802474029188</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1900976492885799</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
+        <v>0.3221955819750525</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.512128297404004</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
         <v>9.325503456652227</v>
       </c>
-      <c r="H21" t="n">
-        <v>0.3003312939903415</v>
-      </c>
       <c r="I21" t="n">
+        <v>0.3517500158827451</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5.58105315527629</v>
+      </c>
+      <c r="K21" t="n">
         <v>1.97698240130005</v>
       </c>
-      <c r="J21" t="n">
-        <v>0.03268861288378005</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
+        <v>0.08548758816039956</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.9488043633582773</v>
+      </c>
+      <c r="N21" t="n">
         <v>36.00585166011</v>
       </c>
-      <c r="L21" t="n">
-        <v>1.265435650139512</v>
+      <c r="O21" t="n">
+        <v>0.6393380609368342</v>
+      </c>
+      <c r="P21" t="n">
+        <v>16.27110732566721</v>
       </c>
     </row>
     <row r="22">
@@ -1308,26 +1568,38 @@
         <v>5.512675516900859</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2163814492273174</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
+        <v>0.2015340393485104</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.609938243091106</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
         <v>6.034923591954875</v>
       </c>
-      <c r="H22" t="n">
-        <v>0.4434871952782116</v>
-      </c>
       <c r="I22" t="n">
+        <v>0.4553389463272285</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4.898079590741943</v>
+      </c>
+      <c r="K22" t="n">
         <v>1.931750039304673</v>
       </c>
-      <c r="J22" t="n">
-        <v>0.07357394406625441</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
+        <v>0.1137694336835296</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.2936726202354395</v>
+      </c>
+      <c r="N22" t="n">
         <v>40.23316021262756</v>
       </c>
-      <c r="L22" t="n">
-        <v>1.436087175096624</v>
+      <c r="O22" t="n">
+        <v>0.9051275120715094</v>
+      </c>
+      <c r="P22" t="n">
+        <v>6.868820922606134</v>
       </c>
     </row>
     <row r="23">
@@ -1348,26 +1620,38 @@
         <v>8.381961266371682</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2900358123990029</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="n">
+        <v>0.2960253587748342</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.279185485212272</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
         <v>9.895442992871184</v>
       </c>
-      <c r="H23" t="n">
-        <v>0.640502315435667</v>
-      </c>
       <c r="I23" t="n">
+        <v>0.665084561865946</v>
+      </c>
+      <c r="J23" t="n">
+        <v>7.310318442778367</v>
+      </c>
+      <c r="K23" t="n">
         <v>2.86279506492037</v>
       </c>
-      <c r="J23" t="n">
-        <v>0.1215927471995944</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
+        <v>0.1443516490895456</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.5335001964713154</v>
+      </c>
+      <c r="N23" t="n">
         <v>61.08019000966686</v>
       </c>
-      <c r="L23" t="n">
-        <v>1.898958608505155</v>
+      <c r="O23" t="n">
+        <v>1.282125217380717</v>
+      </c>
+      <c r="P23" t="n">
+        <v>9.846481578716825</v>
       </c>
     </row>
   </sheetData>

--- a/performance_data/trained/train/metrics.xlsx
+++ b/performance_data/trained/train/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,67 +446,87 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>rmse_thetass2_spme [milli]</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_phie2_spme [mV]</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_if2_spme [mA]</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>rmse_vcell_spme [mV]</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_thetass2_hybrid_without_delta [milli]</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_phie2_hybrid_without_delta [mV]</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_if2_hybrid_without_delta [mA]</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_vcell_hybrid_without_delta [mV]</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_thetass2_hybrid [milli]</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_phie2_hybrid [mV]</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_if2_hybrid [mA]</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>rmse_vcell_hybrid [mV]</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>rmse_vcell_hybrid_without_delta [mV]</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_thetass2_hybrid_mtau [milli]</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_phie2_hybrid_mtau [mV]</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_if2_hybrid_mtau [mA]</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_vcell_hybrid_mtau [mV]</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>rmse_vcell_rom [mV]</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>rmse_thetass2_spme [milli]</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>rmse_thetass2_hybrid [milli]</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>rmse_thetass2_hybrid_without_delta [milli]</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>rmse_phie2_spme [mV]</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>rmse_phie2_hybrid [mV]</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>rmse_phie2_hybrid_without_delta [mV]</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>rmse_if2_spme [mA]</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>rmse_if2_hybrid [mA]</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>rmse_if2_hybrid_without_delta [mA]</t>
         </is>
       </c>
     </row>
@@ -525,42 +545,54 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>45.92466246562669</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.664368546039943</v>
+      </c>
+      <c r="F2" t="n">
+        <v>69.53102781528693</v>
+      </c>
+      <c r="G2" t="n">
         <v>20.93950623549879</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.1447014626131365</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.158513352505637</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>45.92466246562669</v>
+        <v>1.697554794365524</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2549396354681588</v>
+        <v>0.6030457140503073</v>
       </c>
       <c r="J2" t="n">
-        <v>1.305782796257067</v>
+        <v>3.338350371278527</v>
       </c>
       <c r="K2" t="n">
-        <v>3.664368546039943</v>
+        <v>0.8239272767702285</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1136709188497279</v>
+        <v>0.4190669586937095</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8210037975730621</v>
+        <v>0.1037409156440707</v>
       </c>
       <c r="N2" t="n">
-        <v>69.53102781528693</v>
+        <v>1.475065183983574</v>
       </c>
       <c r="O2" t="n">
-        <v>2.35426454294589</v>
+        <v>0.1936662582405842</v>
       </c>
       <c r="P2" t="n">
-        <v>4.141354002011772</v>
-      </c>
+        <v>0.3824102408328273</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.05920817028168075</v>
+      </c>
+      <c r="R2" t="n">
+        <v>6.826898227582694</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.3064625623382096</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -577,42 +609,54 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>39.1123260029219</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.092197198069019</v>
+      </c>
+      <c r="F3" t="n">
+        <v>40.00177483507424</v>
+      </c>
+      <c r="G3" t="n">
         <v>15.57940705218927</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.1462393457123742</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9162895844354827</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>39.1123260029219</v>
+        <v>1.303961972880445</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2409985772909032</v>
+        <v>0.5279914830996177</v>
       </c>
       <c r="J3" t="n">
-        <v>1.341767094347388</v>
+        <v>2.878234039540937</v>
       </c>
       <c r="K3" t="n">
-        <v>2.092197198069019</v>
+        <v>0.6684375275981423</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08226088311766205</v>
+        <v>0.2889849888491758</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6757852101454411</v>
+        <v>0.086323303812219</v>
       </c>
       <c r="N3" t="n">
-        <v>40.00177483507424</v>
+        <v>1.00660639850184</v>
       </c>
       <c r="O3" t="n">
-        <v>1.52561331755798</v>
+        <v>0.1590087135654044</v>
       </c>
       <c r="P3" t="n">
-        <v>2.817362886994148</v>
-      </c>
+        <v>0.3445130094757267</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.061814315082435</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6.215562739858731</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.2912914101387635</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -629,42 +673,54 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>28.37168173501107</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9673119204845828</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18.78211726006774</v>
+      </c>
+      <c r="G4" t="n">
         <v>10.25629369415387</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.08764430653186017</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.446143204064614</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>28.37168173501107</v>
+        <v>7.999795273521246</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2307171122656065</v>
+        <v>1.862762155954682</v>
       </c>
       <c r="J4" t="n">
-        <v>8.815475937859549</v>
+        <v>23.43505078868013</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9673119204845828</v>
+        <v>1.348004045722615</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05278994429287914</v>
+        <v>0.2195808796228474</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9609796348938519</v>
+        <v>0.07237849802101202</v>
       </c>
       <c r="N4" t="n">
-        <v>18.78211726006774</v>
+        <v>0.5542135249974257</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9469769822157679</v>
+        <v>0.1057878506111091</v>
       </c>
       <c r="P4" t="n">
-        <v>38.73887961296128</v>
-      </c>
+        <v>0.2869590641635641</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.04027901228341175</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3.482463129083794</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.2322520095836058</v>
+      </c>
+      <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -681,42 +737,54 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>23.28219428636222</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6329382631472378</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12.46089570086236</v>
+      </c>
+      <c r="G5" t="n">
         <v>8.13820441240917</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.07672120625397706</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.255113875520034</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>23.28219428636222</v>
+        <v>4.179587460104794</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1873069081168543</v>
+        <v>0.1884769418365282</v>
       </c>
       <c r="J5" t="n">
-        <v>2.594194157248451</v>
+        <v>2.704871009479422</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6329382631472378</v>
+        <v>1.055961191175091</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04331641219074985</v>
+        <v>0.1702321516360621</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4171233374084458</v>
+        <v>0.06190033316793745</v>
       </c>
       <c r="N5" t="n">
-        <v>12.46089570086236</v>
+        <v>0.5588879789230725</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6281574872556612</v>
+        <v>0.09938294835795429</v>
       </c>
       <c r="P5" t="n">
-        <v>3.103089203773022</v>
-      </c>
+        <v>0.3110525991297539</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.02356225593650759</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.540141960938973</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.1909819565498131</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -733,42 +801,54 @@
         </is>
       </c>
       <c r="D6" t="n">
+        <v>17.84427831599043</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3623895919954701</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7.29551031936593</v>
+      </c>
+      <c r="G6" t="n">
         <v>6.036058182680254</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.07396966557822747</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.8606683048720434</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>17.84427831599043</v>
+        <v>1.328368141048639</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1740510284848118</v>
+        <v>0.189627094093855</v>
       </c>
       <c r="J6" t="n">
-        <v>1.484685967089342</v>
+        <v>3.326786646577501</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3623895919954701</v>
+        <v>0.4878396842980632</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0337209411480521</v>
+        <v>0.2123896930051613</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3298506463345188</v>
+        <v>0.05143726741682182</v>
       </c>
       <c r="N6" t="n">
-        <v>7.29551031936593</v>
+        <v>0.4820257535145128</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5567261637902534</v>
+        <v>0.08546505710917111</v>
       </c>
       <c r="P6" t="n">
-        <v>3.406545792398516</v>
-      </c>
+        <v>0.2501245652333648</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.01906821623476162</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.824358994560003</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.1687908972212455</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -785,42 +865,54 @@
         </is>
       </c>
       <c r="D7" t="n">
+        <v>12.15000376095061</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1631121796761842</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.401840416890777</v>
+      </c>
+      <c r="G7" t="n">
         <v>3.981369801306371</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.149802145920896</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.7151567643096997</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>12.15000376095061</v>
+        <v>1.017224148741991</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2436418165287724</v>
+        <v>0.09053635057045777</v>
       </c>
       <c r="J7" t="n">
-        <v>1.535749918283733</v>
+        <v>1.348300946637274</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1631121796761842</v>
+        <v>0.3386656512169979</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02578294282736543</v>
+        <v>0.2053291566900711</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2787748641944841</v>
+        <v>0.03897166357148127</v>
       </c>
       <c r="N7" t="n">
-        <v>3.401840416890777</v>
+        <v>0.3280054196771</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7116411480549513</v>
+        <v>0.1283796534922596</v>
       </c>
       <c r="P7" t="n">
-        <v>1.870632747034487</v>
-      </c>
+        <v>0.1960419615415881</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.01496448866894973</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.171101858273539</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.1412393380285963</v>
+      </c>
+      <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -837,42 +929,54 @@
         </is>
       </c>
       <c r="D8" t="n">
+        <v>6.189644427259642</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.04205194627411699</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9363886540955451</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.976525736767965</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.134261421070744</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.6964728517659555</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>6.189644427259642</v>
+        <v>1.347862342445552</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2122016017045981</v>
+        <v>0.0478578830810284</v>
       </c>
       <c r="J8" t="n">
-        <v>1.865862170242416</v>
+        <v>1.433315331164433</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04205194627411699</v>
+        <v>0.5078094311448343</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03554245755218429</v>
+        <v>0.2044744971071054</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1309513642179738</v>
+        <v>0.01418054180986053</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9363886540955451</v>
+        <v>0.3705341369801025</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4599482619350016</v>
+        <v>0.1310116658244002</v>
       </c>
       <c r="P8" t="n">
-        <v>1.433543785784792</v>
-      </c>
+        <v>0.1613935393230151</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.02371175653381484</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.5647055276301826</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.1039163397102093</v>
+      </c>
+      <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -889,42 +993,54 @@
         </is>
       </c>
       <c r="D9" t="n">
+        <v>6.077412829194519</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1079218864883202</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.954743017683389</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.924042851913846</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.17232650610304</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.753064735442966</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>6.077412829194519</v>
+        <v>1.066045917928817</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2559842829501312</v>
+        <v>0.03056094933064124</v>
       </c>
       <c r="J9" t="n">
-        <v>1.236696473855212</v>
+        <v>2.563432801734884</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1079218864883202</v>
+        <v>0.6191365526865784</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06979959647502477</v>
+        <v>0.2148932505107819</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02248327807755838</v>
+        <v>0.006889388807437611</v>
       </c>
       <c r="N9" t="n">
-        <v>1.954743017683389</v>
+        <v>0.1733838564757839</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1880058522048621</v>
+        <v>0.1444805717955286</v>
       </c>
       <c r="P9" t="n">
-        <v>3.755702697480374</v>
-      </c>
+        <v>0.109258034947604</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.0145760490522008</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.1831562634448311</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.07732047208653887</v>
+      </c>
+      <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -941,42 +1057,54 @@
         </is>
       </c>
       <c r="D10" t="n">
+        <v>11.99130952495232</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3431598771705062</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6.251035281392252</v>
+      </c>
+      <c r="G10" t="n">
         <v>3.864819402097794</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.1800624240854978</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.151297649465981</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>11.99130952495232</v>
+        <v>2.162720366140507</v>
       </c>
       <c r="I10" t="n">
-        <v>0.277090752748721</v>
+        <v>0.04608819717012894</v>
       </c>
       <c r="J10" t="n">
-        <v>1.993585982911574</v>
+        <v>2.650802757861324</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3431598771705062</v>
+        <v>0.9768463548872797</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07610555047317216</v>
+        <v>0.249752354481187</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04572521647417075</v>
+        <v>0.01763310921471981</v>
       </c>
       <c r="N10" t="n">
-        <v>6.251035281392252</v>
+        <v>0.1661697477128388</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2957909631748513</v>
+        <v>0.1851659934789021</v>
       </c>
       <c r="P10" t="n">
-        <v>4.303396261846574</v>
-      </c>
+        <v>0.1268584773243296</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.04242814433171462</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.355901980655097</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.07352475581879983</v>
+      </c>
+      <c r="T10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -993,42 +1121,54 @@
         </is>
       </c>
       <c r="D11" t="n">
+        <v>17.67701197859228</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6787911795803728</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12.41656140118064</v>
+      </c>
+      <c r="G11" t="n">
         <v>5.804577260079263</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.3271788503349735</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.926939333749493</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>17.67701197859228</v>
+        <v>4.219842010473419</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3414233777612846</v>
+        <v>0.1030247216906138</v>
       </c>
       <c r="J11" t="n">
-        <v>4.07931018891758</v>
+        <v>2.640505663287774</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6787911795803728</v>
+        <v>1.957841771849773</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07639211896778632</v>
+        <v>0.3075737423462803</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05888460831858983</v>
+        <v>0.02058344675470963</v>
       </c>
       <c r="N11" t="n">
-        <v>12.41656140118064</v>
+        <v>0.2675825620376902</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3342414720266454</v>
+        <v>0.2081365312332959</v>
       </c>
       <c r="P11" t="n">
-        <v>6.769916202735327</v>
-      </c>
+        <v>0.1350479803884356</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.06163197049344648</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.5403978149143304</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.1288694385750011</v>
+      </c>
+      <c r="T11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1045,42 +1185,54 @@
         </is>
       </c>
       <c r="D12" t="n">
+        <v>23.07345703093173</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.098214936506632</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20.17365435353008</v>
+      </c>
+      <c r="G12" t="n">
         <v>7.722136755302695</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.4894722333315807</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.840226203590202</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>23.07345703093173</v>
+        <v>6.576129663184292</v>
       </c>
       <c r="I12" t="n">
-        <v>0.354934820625849</v>
+        <v>0.1664144465361265</v>
       </c>
       <c r="J12" t="n">
-        <v>6.463184463601919</v>
+        <v>3.523023083688697</v>
       </c>
       <c r="K12" t="n">
-        <v>1.098214936506632</v>
+        <v>2.774476698627524</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08793758590308175</v>
+        <v>0.3216347422685574</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06750114325531324</v>
+        <v>0.02305254139053194</v>
       </c>
       <c r="N12" t="n">
-        <v>20.17365435353008</v>
+        <v>0.2546040785453507</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3737458283911755</v>
+        <v>0.3038733693823915</v>
       </c>
       <c r="P12" t="n">
-        <v>8.297442009905</v>
-      </c>
+        <v>0.1332183183329415</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.06468741572539441</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.7892795005302252</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.1955158347988489</v>
+      </c>
+      <c r="T12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1097,42 +1249,54 @@
         </is>
       </c>
       <c r="D13" t="n">
+        <v>28.28882545109327</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.589730132050035</v>
+      </c>
+      <c r="F13" t="n">
+        <v>29.31381695520278</v>
+      </c>
+      <c r="G13" t="n">
         <v>9.664442604398495</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.8499184206339315</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.442427628650778</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>28.28882545109327</v>
+        <v>9.21056048049171</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5263771240946137</v>
+        <v>1.091231786569532</v>
       </c>
       <c r="J13" t="n">
-        <v>9.201115053890611</v>
+        <v>30.10702702713171</v>
       </c>
       <c r="K13" t="n">
-        <v>1.589730132050035</v>
+        <v>0.7470343608956985</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08624288548080612</v>
+        <v>0.2712454433927102</v>
       </c>
       <c r="M13" t="n">
-        <v>1.471579102417278</v>
+        <v>0.02443459108913422</v>
       </c>
       <c r="N13" t="n">
-        <v>29.31381695520278</v>
+        <v>0.3119350073519611</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4074798772324006</v>
+        <v>0.2483896599062915</v>
       </c>
       <c r="P13" t="n">
-        <v>20.93043557264171</v>
-      </c>
+        <v>0.1603157890831474</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0684161500128181</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.9027713745432915</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.2494572196016392</v>
+      </c>
+      <c r="T13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1149,42 +1313,54 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>40.22702207397976</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.089633589898074</v>
+      </c>
+      <c r="F14" t="n">
+        <v>57.40757678604163</v>
+      </c>
+      <c r="G14" t="n">
         <v>14.48452438265758</v>
       </c>
-      <c r="E14" t="n">
-        <v>1.344892293243759</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.867375923412702</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>40.22702207397976</v>
+        <v>5.102489428241947</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8024492451368904</v>
+        <v>0.5012756679629105</v>
       </c>
       <c r="J14" t="n">
-        <v>3.761769567961808</v>
+        <v>2.893973441183654</v>
       </c>
       <c r="K14" t="n">
-        <v>3.089633589898074</v>
+        <v>3.367441667410454</v>
       </c>
       <c r="L14" t="n">
-        <v>0.09573451986381788</v>
+        <v>0.3855658762048603</v>
       </c>
       <c r="M14" t="n">
-        <v>0.07363436622879792</v>
+        <v>0.02936067877378669</v>
       </c>
       <c r="N14" t="n">
-        <v>57.40757678604163</v>
+        <v>0.7328643653003254</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6514619957825368</v>
+        <v>0.7407718108554973</v>
       </c>
       <c r="P14" t="n">
-        <v>9.526903271140904</v>
-      </c>
+        <v>0.236486326419699</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.06993685841292042</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.588412999964324</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.7763192527476009</v>
+      </c>
+      <c r="T14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1201,42 +1377,54 @@
         </is>
       </c>
       <c r="D15" t="n">
+        <v>50.76552208170722</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.897717569093605</v>
+      </c>
+      <c r="F15" t="n">
+        <v>91.32379615265607</v>
+      </c>
+      <c r="G15" t="n">
         <v>19.34968794655873</v>
       </c>
-      <c r="E15" t="n">
-        <v>3.301807678358506</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4.282109614425775</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>50.76552208170722</v>
+        <v>2.849640188851473</v>
       </c>
       <c r="I15" t="n">
-        <v>1.171498970836732</v>
+        <v>0.5798607473088774</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6516559500298</v>
+        <v>3.547870466751172</v>
       </c>
       <c r="K15" t="n">
-        <v>4.897717569093605</v>
+        <v>2.030813288639</v>
       </c>
       <c r="L15" t="n">
-        <v>0.09791846976582178</v>
+        <v>0.3759381918146691</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1123776683359995</v>
+        <v>0.04974580011540494</v>
       </c>
       <c r="N15" t="n">
-        <v>91.32379615265607</v>
+        <v>1.147121948776861</v>
       </c>
       <c r="O15" t="n">
-        <v>0.8011743631108935</v>
+        <v>0.7845053775849823</v>
       </c>
       <c r="P15" t="n">
-        <v>13.19742145168537</v>
-      </c>
+        <v>0.1930500573288915</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.08294509808344787</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.599318998456115</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.217018842775351</v>
+      </c>
+      <c r="T15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1253,42 +1441,54 @@
         </is>
       </c>
       <c r="D16" t="n">
+        <v>13.15058040366157</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.806311812165985</v>
+      </c>
+      <c r="F16" t="n">
+        <v>32.82861635510911</v>
+      </c>
+      <c r="G16" t="n">
         <v>6.330286012396678</v>
       </c>
-      <c r="E16" t="n">
-        <v>0.1010217989635674</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.758627637723296</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>13.15058040366157</v>
+        <v>6.582036166590865</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3813187691396003</v>
+        <v>1.115474167648848</v>
       </c>
       <c r="J16" t="n">
-        <v>7.004104682614353</v>
+        <v>22.75883707820864</v>
       </c>
       <c r="K16" t="n">
-        <v>1.806311812165985</v>
+        <v>1.486611030650202</v>
       </c>
       <c r="L16" t="n">
-        <v>0.05080057231149222</v>
+        <v>0.3108737024197045</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9867880712217992</v>
+        <v>0.04035815256976195</v>
       </c>
       <c r="N16" t="n">
-        <v>32.82861635510911</v>
+        <v>0.6409693957082904</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7494274990378299</v>
+        <v>0.1098520504070521</v>
       </c>
       <c r="P16" t="n">
-        <v>29.72785757824348</v>
-      </c>
+        <v>0.245290820911538</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.02455763250763184</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.96795948040808</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.1430347103957416</v>
+      </c>
+      <c r="T16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1305,42 +1505,54 @@
         </is>
       </c>
       <c r="D17" t="n">
+        <v>13.33038952488467</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.890133504311341</v>
+      </c>
+      <c r="F17" t="n">
+        <v>34.46358346375723</v>
+      </c>
+      <c r="G17" t="n">
         <v>6.533939478173556</v>
       </c>
-      <c r="E17" t="n">
-        <v>0.4136405118658295</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.413086766821142</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>13.33038952488467</v>
+        <v>6.214376515697904</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3638850688951091</v>
+        <v>1.140966882717991</v>
       </c>
       <c r="J17" t="n">
-        <v>6.576147594081661</v>
+        <v>17.40281838153605</v>
       </c>
       <c r="K17" t="n">
-        <v>1.890133504311341</v>
+        <v>1.225699731827131</v>
       </c>
       <c r="L17" t="n">
-        <v>0.09319127933822578</v>
+        <v>0.3477552718463676</v>
       </c>
       <c r="M17" t="n">
-        <v>1.218283549533634</v>
+        <v>0.03807063927124596</v>
       </c>
       <c r="N17" t="n">
-        <v>34.46358346375723</v>
+        <v>0.5645847450124867</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5458270808968316</v>
+        <v>0.2051742252172539</v>
       </c>
       <c r="P17" t="n">
-        <v>18.01144876103204</v>
-      </c>
+        <v>0.1698704459707523</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.04744273137633186</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.6671886037024429</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.1993833327523624</v>
+      </c>
+      <c r="T17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1357,42 +1569,54 @@
         </is>
       </c>
       <c r="D18" t="n">
+        <v>11.51222751633626</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.021264524613593</v>
+      </c>
+      <c r="F18" t="n">
+        <v>36.54217756834051</v>
+      </c>
+      <c r="G18" t="n">
         <v>6.464454412748382</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.127146771021778</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.804193026045434</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>11.51222751633626</v>
+        <v>6.872001601954651</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3611435592835208</v>
+        <v>1.048343076666414</v>
       </c>
       <c r="J18" t="n">
-        <v>7.094695007243816</v>
+        <v>22.584831293738</v>
       </c>
       <c r="K18" t="n">
-        <v>2.021264524613593</v>
+        <v>1.456570194987767</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05494865708426171</v>
+        <v>0.3073625523925858</v>
       </c>
       <c r="M18" t="n">
-        <v>0.988676865554064</v>
+        <v>0.05019759721876496</v>
       </c>
       <c r="N18" t="n">
-        <v>36.54217756834051</v>
+        <v>0.5205107910904723</v>
       </c>
       <c r="O18" t="n">
-        <v>0.8020634713571693</v>
+        <v>0.1194197179259321</v>
       </c>
       <c r="P18" t="n">
-        <v>29.19624691049688</v>
-      </c>
+        <v>0.2404665890205243</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.02309485825218975</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.975403490244871</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.1423224814081505</v>
+      </c>
+      <c r="T18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1409,42 +1633,54 @@
         </is>
       </c>
       <c r="D19" t="n">
+        <v>11.52931251841167</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.029905381850061</v>
+      </c>
+      <c r="F19" t="n">
+        <v>36.80622061930284</v>
+      </c>
+      <c r="G19" t="n">
         <v>6.509941070911604</v>
       </c>
-      <c r="E19" t="n">
-        <v>0.3832302965479421</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.594589498737972</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>11.52931251841167</v>
+        <v>6.36740307469259</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3287175401460782</v>
+        <v>1.149081885613119</v>
       </c>
       <c r="J19" t="n">
-        <v>6.553487123422274</v>
+        <v>16.59687499720199</v>
       </c>
       <c r="K19" t="n">
-        <v>2.029905381850061</v>
+        <v>1.357483137072534</v>
       </c>
       <c r="L19" t="n">
-        <v>0.09303002701129101</v>
+        <v>0.2792401710633818</v>
       </c>
       <c r="M19" t="n">
-        <v>1.19936667903982</v>
+        <v>0.03220423048524849</v>
       </c>
       <c r="N19" t="n">
-        <v>36.80622061930284</v>
+        <v>0.5352051228663655</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5598238148476871</v>
+        <v>0.2767248743980585</v>
       </c>
       <c r="P19" t="n">
-        <v>18.11138641755876</v>
-      </c>
+        <v>0.1726204830929606</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.05031268647553282</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.6022207575281732</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.1292471077206212</v>
+      </c>
+      <c r="T19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1461,42 +1697,54 @@
         </is>
       </c>
       <c r="D20" t="n">
+        <v>9.390682266155379</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.005709850069252</v>
+      </c>
+      <c r="F20" t="n">
+        <v>36.4915266830394</v>
+      </c>
+      <c r="G20" t="n">
         <v>5.954458008904421</v>
       </c>
-      <c r="E20" t="n">
-        <v>0.2638145375778966</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.621782107208268</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>9.390682266155379</v>
+        <v>6.93482241772888</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3464792724237805</v>
+        <v>0.8376279808055702</v>
       </c>
       <c r="J20" t="n">
-        <v>6.963091353199945</v>
+        <v>19.46714537548539</v>
       </c>
       <c r="K20" t="n">
-        <v>2.005709850069252</v>
+        <v>1.411928034206691</v>
       </c>
       <c r="L20" t="n">
-        <v>0.07169169776855777</v>
+        <v>0.3009617282600873</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7164928405400729</v>
+        <v>0.0555089990906679</v>
       </c>
       <c r="N20" t="n">
-        <v>36.4915266830394</v>
+        <v>0.8647104141031451</v>
       </c>
       <c r="O20" t="n">
-        <v>1.43714346968062</v>
+        <v>0.1722974702773311</v>
       </c>
       <c r="P20" t="n">
-        <v>24.60286520996206</v>
-      </c>
+        <v>0.2558600342187433</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.02587118774957418</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.845375420135418</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.1984341768162208</v>
+      </c>
+      <c r="T20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1513,42 +1761,54 @@
         </is>
       </c>
       <c r="D21" t="n">
+        <v>9.325503456652227</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.97698240130005</v>
+      </c>
+      <c r="F21" t="n">
+        <v>36.00585166011</v>
+      </c>
+      <c r="G21" t="n">
         <v>6.061802474029188</v>
       </c>
-      <c r="E21" t="n">
-        <v>0.3221955819750525</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.512128297404004</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>9.325503456652227</v>
+        <v>5.484778485240745</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3517500158827451</v>
+        <v>0.9340803672004617</v>
       </c>
       <c r="J21" t="n">
-        <v>5.58105315527629</v>
+        <v>12.91630948124644</v>
       </c>
       <c r="K21" t="n">
-        <v>1.97698240130005</v>
+        <v>1.339423248394092</v>
       </c>
       <c r="L21" t="n">
-        <v>0.08548758816039956</v>
+        <v>0.3315051916982447</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9488043633582773</v>
+        <v>0.03953219727902051</v>
       </c>
       <c r="N21" t="n">
-        <v>36.00585166011</v>
+        <v>0.542809156248282</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6393380609368342</v>
+        <v>0.2503794969251396</v>
       </c>
       <c r="P21" t="n">
-        <v>16.27110732566721</v>
-      </c>
+        <v>0.1934675676316117</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.04822308210723001</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.6032181291456186</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.1524557819175639</v>
+      </c>
+      <c r="T21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1565,42 +1825,54 @@
         </is>
       </c>
       <c r="D22" t="n">
+        <v>6.034923591954875</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.931750039304673</v>
+      </c>
+      <c r="F22" t="n">
+        <v>40.23316021262756</v>
+      </c>
+      <c r="G22" t="n">
         <v>5.512675516900859</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.2015340393485104</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.609938243091106</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>6.034923591954875</v>
+        <v>4.827291293496791</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4553389463272285</v>
+        <v>0.3449106240444618</v>
       </c>
       <c r="J22" t="n">
-        <v>4.898079590741943</v>
+        <v>7.898919281480477</v>
       </c>
       <c r="K22" t="n">
-        <v>1.931750039304673</v>
+        <v>1.60750389037992</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1137694336835296</v>
+        <v>0.493665001289436</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2936726202354395</v>
+        <v>0.07840446151953596</v>
       </c>
       <c r="N22" t="n">
-        <v>40.23316021262756</v>
+        <v>0.7419071138699407</v>
       </c>
       <c r="O22" t="n">
-        <v>0.9051275120715094</v>
+        <v>0.1974765247307298</v>
       </c>
       <c r="P22" t="n">
-        <v>6.868820922606134</v>
-      </c>
+        <v>0.4686537077012519</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.08309932551222922</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.9338111468333402</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.175489116936113</v>
+      </c>
+      <c r="T22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1617,42 +1889,54 @@
         </is>
       </c>
       <c r="D23" t="n">
+        <v>9.895442992871184</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.86279506492037</v>
+      </c>
+      <c r="F23" t="n">
+        <v>61.08019000966686</v>
+      </c>
+      <c r="G23" t="n">
         <v>8.381961266371682</v>
       </c>
-      <c r="E23" t="n">
-        <v>0.2960253587748342</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2.279185485212272</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>9.895442992871184</v>
+        <v>7.251040646446741</v>
       </c>
       <c r="I23" t="n">
-        <v>0.665084561865946</v>
+        <v>0.4549477487491966</v>
       </c>
       <c r="J23" t="n">
-        <v>7.310318442778367</v>
+        <v>8.479952914376868</v>
       </c>
       <c r="K23" t="n">
-        <v>2.86279506492037</v>
+        <v>2.280959381739882</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1443516490895456</v>
+        <v>0.6711473081630477</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5335001964713154</v>
+        <v>0.121916207244351</v>
       </c>
       <c r="N23" t="n">
-        <v>61.08019000966686</v>
+        <v>1.244555828083299</v>
       </c>
       <c r="O23" t="n">
-        <v>1.282125217380717</v>
+        <v>0.2891850442369446</v>
       </c>
       <c r="P23" t="n">
-        <v>9.846481578716825</v>
-      </c>
+        <v>0.5872934590961769</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.1232767553804988</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.240879165128979</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.2573669569157441</v>
+      </c>
+      <c r="T23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
